--- a/CSV Files headers.xlsx
+++ b/CSV Files headers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\Boot Camp  Data analytics program\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E80C23-F23F-4621-A7DD-7EC85B906511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA8D92-B114-4F07-9639-7DB5387ACA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{516C2240-F366-4B15-8317-EA50D56AD7BE}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AE08C1-42D3-48D4-B90C-2E8BBBFA02D3}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +598,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
